--- a/biology/Zoologie/Crematogaster/Crematogaster.xlsx
+++ b/biology/Zoologie/Crematogaster/Crematogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crematogaster est un genre de fourmis, insectes hyménoptères de la famille des Formicidae. Ce genre est présent sur tout le globe.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre vient du grec kremastos (suspendu) et gaster (ventre) en référence à la position relevée du ventre (gastre) de ces fourmis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre vient du grec kremastos (suspendu) et gaster (ventre) en référence à la position relevée du ventre (gastre) de ces fourmis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont la caractéristique d'avoir leur abdomen en forme de pique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont la caractéristique d'avoir leur abdomen en forme de pique.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est cosmopolite.
-L'espèce de Crematogaster la plus présente en France est Crematogaster scutellaris[3]. Vivant souvent dans des souches d'arbre ou arbre mort, elle prolifère facilement dans les climats chauds. Bien que la période soit longue de l'œuf à l'imago, la colonie une fois lancée se développe rapidement.
-Crematogaster auberti et Crematogaster sordidula sont les deux autres espèces de Crematogaster présentes en France métropolitaine[4].
+L'espèce de Crematogaster la plus présente en France est Crematogaster scutellaris. Vivant souvent dans des souches d'arbre ou arbre mort, elle prolifère facilement dans les climats chauds. Bien que la période soit longue de l'œuf à l'imago, la colonie une fois lancée se développe rapidement.
+Crematogaster auberti et Crematogaster sordidula sont les deux autres espèces de Crematogaster présentes en France métropolitaine.
 Au Québec, une seule espèce, Crematogaster cerasi (Fitch), est répertoriée.  
 </t>
         </is>
@@ -607,9 +625,11 @@
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de fourmis, notamment Crematogaster mimosae[5] et Crematogaster nigriceps[6], vivent en symbiose mutualiste avec l’acacia Vachellia drepanolobium. Chacun y trouve son compte, l’acacia fournit un nid aux fourmis (des cavités dans de grandes épines, les domaties) et de quoi s’alimenter (le nectar fourni par les nectaires extra-floraux), en échange de quoi les fourmis défendent l'arbre contre les autres insectes et les mammifères herbivores, notamment les girafes[7] et les éléphants[8],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de fourmis, notamment Crematogaster mimosae et Crematogaster nigriceps, vivent en symbiose mutualiste avec l’acacia Vachellia drepanolobium. Chacun y trouve son compte, l’acacia fournit un nid aux fourmis (des cavités dans de grandes épines, les domaties) et de quoi s’alimenter (le nectar fourni par les nectaires extra-floraux), en échange de quoi les fourmis défendent l'arbre contre les autres insectes et les mammifères herbivores, notamment les girafes et les éléphants,.
 </t>
         </is>
       </c>
@@ -639,6 +659,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
